--- a/data-raw/scenarios for io model.xlsx
+++ b/data-raw/scenarios for io model.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
   <si>
     <t xml:space="preserve">year </t>
   </si>
@@ -755,7 +755,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,32 +3236,68 @@
       <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="17"/>
+      <c r="O22" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W22" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X22" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y22" s="27"/>
       <c r="Z22" s="29"/>
-      <c r="AA22" s="31"/>
+      <c r="AA22" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -3332,32 +3368,68 @@
       <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="17"/>
+      <c r="O23" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W23" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X23" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y23" s="27"/>
       <c r="Z23" s="29"/>
-      <c r="AA23" s="31"/>
+      <c r="AA23" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -3428,32 +3500,68 @@
       <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="17"/>
+      <c r="O24" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W24" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X24" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y24" s="27"/>
       <c r="Z24" s="29"/>
-      <c r="AA24" s="31"/>
+      <c r="AA24" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -3524,32 +3632,68 @@
       <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="17"/>
+      <c r="O25" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W25" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X25" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y25" s="27"/>
       <c r="Z25" s="29"/>
-      <c r="AA25" s="31"/>
+      <c r="AA25" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -3620,32 +3764,68 @@
       <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="17"/>
+      <c r="O26" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W26" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X26" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y26" s="27"/>
       <c r="Z26" s="29"/>
-      <c r="AA26" s="31"/>
+      <c r="AA26" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -3716,32 +3896,68 @@
       <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="17"/>
+      <c r="O27" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W27" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X27" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y27" s="27"/>
       <c r="Z27" s="29"/>
-      <c r="AA27" s="31"/>
+      <c r="AA27" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -3812,32 +4028,68 @@
       <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="B28" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="17"/>
+      <c r="O28" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W28" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X28" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y28" s="27"/>
       <c r="Z28" s="29"/>
-      <c r="AA28" s="31"/>
+      <c r="AA28" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -3908,32 +4160,68 @@
       <c r="A29" s="25">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="B29" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="17"/>
+      <c r="O29" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W29" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X29" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y29" s="27"/>
       <c r="Z29" s="29"/>
-      <c r="AA29" s="31"/>
+      <c r="AA29" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
@@ -4004,32 +4292,68 @@
       <c r="A30" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="B30" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="17"/>
+      <c r="O30" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W30" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X30" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y30" s="27"/>
       <c r="Z30" s="29"/>
-      <c r="AA30" s="31"/>
+      <c r="AA30" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
@@ -4100,32 +4424,68 @@
       <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="B31" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="17"/>
+      <c r="O31" s="15">
+        <v>-0.1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="R31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="S31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="T31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="U31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="V31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="W31" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="X31" s="17">
+        <v>-0.1</v>
+      </c>
       <c r="Y31" s="27"/>
       <c r="Z31" s="29"/>
-      <c r="AA31" s="31"/>
+      <c r="AA31" s="31">
+        <v>-0.1</v>
+      </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -54691,13 +55051,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G51</xm:sqref>
+          <xm:sqref>G2:G51 H22:H31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H51</xm:sqref>
+          <xm:sqref>H3:H21 H32:H51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
